--- a/data/pca/factorExposure/factorExposure_2015-04-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02324586484374491</v>
+        <v>0.0108566335897801</v>
       </c>
       <c r="C2">
-        <v>0.0268779870164293</v>
+        <v>-0.05311711844157824</v>
       </c>
       <c r="D2">
-        <v>-0.129809854795755</v>
+        <v>0.1251980400327041</v>
       </c>
       <c r="E2">
-        <v>-0.006645669930407453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02529429512550777</v>
+      </c>
+      <c r="F2">
+        <v>0.01670149895578082</v>
+      </c>
+      <c r="G2">
+        <v>-0.07121645215204009</v>
+      </c>
+      <c r="H2">
+        <v>-0.112515851829383</v>
+      </c>
+      <c r="I2">
+        <v>0.08426494461868317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04296928519521117</v>
+        <v>0.01741350445857207</v>
       </c>
       <c r="C4">
-        <v>0.06852959000414853</v>
+        <v>-0.1060390714156085</v>
       </c>
       <c r="D4">
-        <v>-0.1061896218660293</v>
+        <v>0.1285884128385595</v>
       </c>
       <c r="E4">
-        <v>-0.08812853313239394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01559291494437082</v>
+      </c>
+      <c r="F4">
+        <v>0.09486653797918566</v>
+      </c>
+      <c r="G4">
+        <v>0.01418938770210823</v>
+      </c>
+      <c r="H4">
+        <v>-0.06635712681540711</v>
+      </c>
+      <c r="I4">
+        <v>-0.07047028630269883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02483926042634036</v>
+        <v>0.02990780269290059</v>
       </c>
       <c r="C6">
-        <v>0.01356451885401498</v>
+        <v>-0.03774835010389098</v>
       </c>
       <c r="D6">
-        <v>-0.1267009082176412</v>
+        <v>0.1214437526716114</v>
       </c>
       <c r="E6">
-        <v>-0.05213982568712017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06373790391665909</v>
+      </c>
+      <c r="F6">
+        <v>0.04404029248175343</v>
+      </c>
+      <c r="G6">
+        <v>0.03024486303427013</v>
+      </c>
+      <c r="H6">
+        <v>-0.03475916143591892</v>
+      </c>
+      <c r="I6">
+        <v>0.003466212932534391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001576621254508962</v>
+        <v>0.005967879899987337</v>
       </c>
       <c r="C7">
-        <v>0.02412495101487248</v>
+        <v>-0.03881187296619842</v>
       </c>
       <c r="D7">
-        <v>-0.1076511545736583</v>
+        <v>0.09587855630160745</v>
       </c>
       <c r="E7">
-        <v>-0.01590525138712068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04967649901851818</v>
+      </c>
+      <c r="F7">
+        <v>0.002888615230679477</v>
+      </c>
+      <c r="G7">
+        <v>0.06206905025453995</v>
+      </c>
+      <c r="H7">
+        <v>-0.06970386721495624</v>
+      </c>
+      <c r="I7">
+        <v>-0.04116926964860774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>5.49727547886639e-05</v>
+        <v>-0.008030946475708879</v>
       </c>
       <c r="C8">
-        <v>0.02628731820838367</v>
+        <v>-0.03586401532624867</v>
       </c>
       <c r="D8">
-        <v>-0.08522219650509688</v>
+        <v>0.07332078575844209</v>
       </c>
       <c r="E8">
-        <v>-0.03717801950213529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0378651346782727</v>
+      </c>
+      <c r="F8">
+        <v>0.0456528353211674</v>
+      </c>
+      <c r="G8">
+        <v>-0.04725708891237086</v>
+      </c>
+      <c r="H8">
+        <v>-0.05188762921148214</v>
+      </c>
+      <c r="I8">
+        <v>-0.01947801962840704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03347291769404095</v>
+        <v>0.01215845195370167</v>
       </c>
       <c r="C9">
-        <v>0.05980989821192605</v>
+        <v>-0.08739546129644966</v>
       </c>
       <c r="D9">
-        <v>-0.1109201709533285</v>
+        <v>0.1106111017642838</v>
       </c>
       <c r="E9">
-        <v>-0.06942006718424079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01505582922508973</v>
+      </c>
+      <c r="F9">
+        <v>0.06269109846462924</v>
+      </c>
+      <c r="G9">
+        <v>0.04021851951250705</v>
+      </c>
+      <c r="H9">
+        <v>-0.05770131403287649</v>
+      </c>
+      <c r="I9">
+        <v>-0.03381439319801535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1747533747290769</v>
+        <v>0.2400780429301759</v>
       </c>
       <c r="C10">
-        <v>-0.1709049710414867</v>
+        <v>0.08875014467789795</v>
       </c>
       <c r="D10">
-        <v>0.009490454791321649</v>
+        <v>-0.006385122226223934</v>
       </c>
       <c r="E10">
-        <v>-0.04820146064502513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01370091635928997</v>
+      </c>
+      <c r="F10">
+        <v>0.04694574789032054</v>
+      </c>
+      <c r="G10">
+        <v>-0.01273260796923147</v>
+      </c>
+      <c r="H10">
+        <v>0.01403432858810368</v>
+      </c>
+      <c r="I10">
+        <v>0.0142936246768935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0188499679658191</v>
+        <v>0.009776631846212028</v>
       </c>
       <c r="C11">
-        <v>0.04173182638580285</v>
+        <v>-0.05870408217328622</v>
       </c>
       <c r="D11">
-        <v>-0.04162171353205445</v>
+        <v>0.04009501188941559</v>
       </c>
       <c r="E11">
-        <v>0.01590611475834279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02199768880047181</v>
+      </c>
+      <c r="F11">
+        <v>-0.0158889583986473</v>
+      </c>
+      <c r="G11">
+        <v>0.03480020433237459</v>
+      </c>
+      <c r="H11">
+        <v>-0.03739074317544633</v>
+      </c>
+      <c r="I11">
+        <v>-0.03232441731430735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01768007916710536</v>
+        <v>0.009042364682399733</v>
       </c>
       <c r="C12">
-        <v>0.04280563625126182</v>
+        <v>-0.05089856953024204</v>
       </c>
       <c r="D12">
-        <v>-0.05370382265980948</v>
+        <v>0.04383280215979659</v>
       </c>
       <c r="E12">
-        <v>0.00831313900953622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01670840790812347</v>
+      </c>
+      <c r="F12">
+        <v>-0.01949225916818821</v>
+      </c>
+      <c r="G12">
+        <v>0.05615815609193239</v>
+      </c>
+      <c r="H12">
+        <v>-0.04288067435736759</v>
+      </c>
+      <c r="I12">
+        <v>-0.005089255907748378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.00573458554468066</v>
+        <v>-0.004698428031487728</v>
       </c>
       <c r="C13">
-        <v>0.02475670365290753</v>
+        <v>-0.05025457275833488</v>
       </c>
       <c r="D13">
-        <v>-0.1286221590359211</v>
+        <v>0.1421149122411548</v>
       </c>
       <c r="E13">
-        <v>-0.04276158762857155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03852258540985441</v>
+      </c>
+      <c r="F13">
+        <v>0.02574196048820091</v>
+      </c>
+      <c r="G13">
+        <v>0.02050266456398989</v>
+      </c>
+      <c r="H13">
+        <v>-0.07509791434121399</v>
+      </c>
+      <c r="I13">
+        <v>0.04673022834704971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004632236173691581</v>
+        <v>0.001873084982159363</v>
       </c>
       <c r="C14">
-        <v>0.01877377855679708</v>
+        <v>-0.03254986761838948</v>
       </c>
       <c r="D14">
-        <v>-0.08488187700112322</v>
+        <v>0.09393418546737271</v>
       </c>
       <c r="E14">
-        <v>-0.01586279200704616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05638867806598206</v>
+      </c>
+      <c r="F14">
+        <v>0.02044232648624993</v>
+      </c>
+      <c r="G14">
+        <v>0.06358682642049071</v>
+      </c>
+      <c r="H14">
+        <v>-0.1358535572561365</v>
+      </c>
+      <c r="I14">
+        <v>0.006782130270145307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002912708067198346</v>
+        <v>-0.005514098864821776</v>
       </c>
       <c r="C15">
-        <v>0.01035407015718346</v>
+        <v>-0.02764361428553333</v>
       </c>
       <c r="D15">
-        <v>-0.03607121950168324</v>
+        <v>0.05881570857864495</v>
       </c>
       <c r="E15">
-        <v>0.003660745527872058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01791312018869941</v>
+      </c>
+      <c r="F15">
+        <v>0.003378078881270061</v>
+      </c>
+      <c r="G15">
+        <v>0.009705229705029803</v>
+      </c>
+      <c r="H15">
+        <v>-0.06211182642682089</v>
+      </c>
+      <c r="I15">
+        <v>-0.0160509589934107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01748843687930207</v>
+        <v>0.009255774939446158</v>
       </c>
       <c r="C16">
-        <v>0.03833642223330958</v>
+        <v>-0.05129341916580971</v>
       </c>
       <c r="D16">
-        <v>-0.04708708207950324</v>
+        <v>0.04124771823590978</v>
       </c>
       <c r="E16">
-        <v>0.006793393247408124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02302225414772427</v>
+      </c>
+      <c r="F16">
+        <v>-0.01090619296601609</v>
+      </c>
+      <c r="G16">
+        <v>0.0428165838392466</v>
+      </c>
+      <c r="H16">
+        <v>-0.02923956869853438</v>
+      </c>
+      <c r="I16">
+        <v>-0.01926289979135681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.001429960755823447</v>
+        <v>-0.003394583424418695</v>
       </c>
       <c r="C19">
-        <v>0.02039952076907213</v>
+        <v>-0.01588091069349485</v>
       </c>
       <c r="D19">
-        <v>-0.07660578081502351</v>
+        <v>0.05188477311862948</v>
       </c>
       <c r="E19">
-        <v>-0.02620196822255718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.00794568119148582</v>
+      </c>
+      <c r="F19">
+        <v>0.01201223765692619</v>
+      </c>
+      <c r="G19">
+        <v>0.008299469283247981</v>
+      </c>
+      <c r="H19">
+        <v>-0.04813693722155341</v>
+      </c>
+      <c r="I19">
+        <v>0.01592258510559807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003132945406541332</v>
+        <v>0.0045905214978172</v>
       </c>
       <c r="C20">
-        <v>0.02444846843210267</v>
+        <v>-0.04196502759303836</v>
       </c>
       <c r="D20">
-        <v>-0.07644662323647042</v>
+        <v>0.08684063439090588</v>
       </c>
       <c r="E20">
-        <v>-0.03664349409759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02438579559849855</v>
+      </c>
+      <c r="F20">
+        <v>0.02393335543392692</v>
+      </c>
+      <c r="G20">
+        <v>0.04274629347060552</v>
+      </c>
+      <c r="H20">
+        <v>-0.05108397145944925</v>
+      </c>
+      <c r="I20">
+        <v>-0.0402913120340833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.004443814600906083</v>
+        <v>0.002511870515211826</v>
       </c>
       <c r="C21">
-        <v>0.03104380486967815</v>
+        <v>-0.04688128228199706</v>
       </c>
       <c r="D21">
-        <v>-0.1401969970181373</v>
+        <v>0.1228986333606238</v>
       </c>
       <c r="E21">
-        <v>-0.08052904017974243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03339684339231004</v>
+      </c>
+      <c r="F21">
+        <v>0.08324227327674391</v>
+      </c>
+      <c r="G21">
+        <v>0.06181225510335239</v>
+      </c>
+      <c r="H21">
+        <v>-0.182742903407681</v>
+      </c>
+      <c r="I21">
+        <v>0.07195217232256254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001650564236050851</v>
+        <v>-0.01453907862799434</v>
       </c>
       <c r="C22">
-        <v>0.06944845582544658</v>
+        <v>-0.08931100224532554</v>
       </c>
       <c r="D22">
-        <v>-0.301752774342161</v>
+        <v>0.2736551848097283</v>
       </c>
       <c r="E22">
-        <v>-0.03856210935286338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06197541594915634</v>
+      </c>
+      <c r="F22">
+        <v>0.01938049268048864</v>
+      </c>
+      <c r="G22">
+        <v>-0.5200195373605683</v>
+      </c>
+      <c r="H22">
+        <v>0.1904932411370609</v>
+      </c>
+      <c r="I22">
+        <v>0.005789091523417224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001926570717136333</v>
+        <v>-0.01137190676280176</v>
       </c>
       <c r="C23">
-        <v>0.06992408871031558</v>
+        <v>-0.091088372312534</v>
       </c>
       <c r="D23">
-        <v>-0.3012367039044656</v>
+        <v>0.276120440439372</v>
       </c>
       <c r="E23">
-        <v>-0.03873862739476493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05701065499304907</v>
+      </c>
+      <c r="F23">
+        <v>0.0224287305133799</v>
+      </c>
+      <c r="G23">
+        <v>-0.503648507031495</v>
+      </c>
+      <c r="H23">
+        <v>0.181039640584826</v>
+      </c>
+      <c r="I23">
+        <v>0.007535308926422989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02366730460878726</v>
+        <v>0.009685587717694464</v>
       </c>
       <c r="C24">
-        <v>0.05785901910650769</v>
+        <v>-0.06757361872666093</v>
       </c>
       <c r="D24">
-        <v>-0.05528000488433182</v>
+        <v>0.04464296274477697</v>
       </c>
       <c r="E24">
-        <v>0.006502180274783323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03005115186304325</v>
+      </c>
+      <c r="F24">
+        <v>-0.009865405759465276</v>
+      </c>
+      <c r="G24">
+        <v>0.04322270609916364</v>
+      </c>
+      <c r="H24">
+        <v>-0.05872409952619136</v>
+      </c>
+      <c r="I24">
+        <v>-0.02587907409466374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02413160179616284</v>
+        <v>0.01363101055212414</v>
       </c>
       <c r="C25">
-        <v>0.04989969359914118</v>
+        <v>-0.06236187722991478</v>
       </c>
       <c r="D25">
-        <v>-0.05329519839008014</v>
+        <v>0.04715148154032688</v>
       </c>
       <c r="E25">
-        <v>5.097068011503807e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01575047283703021</v>
+      </c>
+      <c r="F25">
+        <v>-0.008505794285030559</v>
+      </c>
+      <c r="G25">
+        <v>0.03378401685157163</v>
+      </c>
+      <c r="H25">
+        <v>-0.02645374359667104</v>
+      </c>
+      <c r="I25">
+        <v>-0.01913138583271071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01000201542122931</v>
+        <v>0.01741582033786014</v>
       </c>
       <c r="C26">
-        <v>0.01509061854427952</v>
+        <v>-0.02916794453641461</v>
       </c>
       <c r="D26">
-        <v>-0.07356692855229922</v>
+        <v>0.06600910407671878</v>
       </c>
       <c r="E26">
-        <v>-0.02768270908669914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.03991835092747328</v>
+      </c>
+      <c r="F26">
+        <v>0.04139038510817036</v>
+      </c>
+      <c r="G26">
+        <v>0.04230565048544204</v>
+      </c>
+      <c r="H26">
+        <v>-0.09859933620244415</v>
+      </c>
+      <c r="I26">
+        <v>-0.0008278311315147086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2594238762609423</v>
+        <v>0.3179324816120165</v>
       </c>
       <c r="C28">
-        <v>-0.1928243816010233</v>
+        <v>0.0862449912964683</v>
       </c>
       <c r="D28">
-        <v>-0.006813114273616618</v>
+        <v>-0.02572448474821597</v>
       </c>
       <c r="E28">
-        <v>-0.04471647777492409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04836132553459505</v>
+      </c>
+      <c r="F28">
+        <v>0.04662296316441725</v>
+      </c>
+      <c r="G28">
+        <v>-0.05871135679716623</v>
+      </c>
+      <c r="H28">
+        <v>-0.02383608518039619</v>
+      </c>
+      <c r="I28">
+        <v>-0.00855830984618155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0004757988024106856</v>
+        <v>0.0004986007365221968</v>
       </c>
       <c r="C29">
-        <v>0.02277128913021334</v>
+        <v>-0.03808148628064478</v>
       </c>
       <c r="D29">
-        <v>-0.08294451811007042</v>
+        <v>0.09565167906095881</v>
       </c>
       <c r="E29">
-        <v>-0.0258047184776369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.06418200543315812</v>
+      </c>
+      <c r="F29">
+        <v>0.02249175088431359</v>
+      </c>
+      <c r="G29">
+        <v>0.08765419969590098</v>
+      </c>
+      <c r="H29">
+        <v>-0.1482857742344085</v>
+      </c>
+      <c r="I29">
+        <v>0.006136749258816496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02491412020349677</v>
+        <v>0.01268390228357068</v>
       </c>
       <c r="C30">
-        <v>0.06652542260847008</v>
+        <v>-0.09345511372676929</v>
       </c>
       <c r="D30">
-        <v>-0.1485967461002506</v>
+        <v>0.1358433200026193</v>
       </c>
       <c r="E30">
-        <v>-0.0289374163726782</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05630571234788912</v>
+      </c>
+      <c r="F30">
+        <v>0.01611024124607487</v>
+      </c>
+      <c r="G30">
+        <v>0.009835120286036112</v>
+      </c>
+      <c r="H30">
+        <v>-0.05253429380044464</v>
+      </c>
+      <c r="I30">
+        <v>-0.04681886248091451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0368585243244264</v>
+        <v>0.00761309935717227</v>
       </c>
       <c r="C31">
-        <v>0.08395706615013347</v>
+        <v>-0.09491464431806568</v>
       </c>
       <c r="D31">
-        <v>-0.05675322914251766</v>
+        <v>0.03842348881406606</v>
       </c>
       <c r="E31">
-        <v>-0.01245362869025794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01956609933652548</v>
+      </c>
+      <c r="F31">
+        <v>0.01341424783328966</v>
+      </c>
+      <c r="G31">
+        <v>0.01686629041521713</v>
+      </c>
+      <c r="H31">
+        <v>-0.04207913473097431</v>
+      </c>
+      <c r="I31">
+        <v>-0.01192695688582423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01412767397314479</v>
+        <v>0.01026662693266127</v>
       </c>
       <c r="C32">
-        <v>0.03834427572692163</v>
+        <v>-0.05102374596375095</v>
       </c>
       <c r="D32">
-        <v>-0.08047121266062976</v>
+        <v>0.0853079649955393</v>
       </c>
       <c r="E32">
-        <v>-0.04643614868197615</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.004721514155551478</v>
+      </c>
+      <c r="F32">
+        <v>0.04588019741921959</v>
+      </c>
+      <c r="G32">
+        <v>0.02113689865437533</v>
+      </c>
+      <c r="H32">
+        <v>-0.06288698428624627</v>
+      </c>
+      <c r="I32">
+        <v>0.01965978788231307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006618963919369013</v>
+        <v>0.004485549112835146</v>
       </c>
       <c r="C33">
-        <v>0.0408918558571697</v>
+        <v>-0.05984661561507066</v>
       </c>
       <c r="D33">
-        <v>-0.1202351934764347</v>
+        <v>0.1178830282747317</v>
       </c>
       <c r="E33">
-        <v>-0.03897601116525697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03015352741179996</v>
+      </c>
+      <c r="F33">
+        <v>0.02529952247369662</v>
+      </c>
+      <c r="G33">
+        <v>0.02659559006444573</v>
+      </c>
+      <c r="H33">
+        <v>-0.0561780872176525</v>
+      </c>
+      <c r="I33">
+        <v>-0.009351606174749626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02111602435810118</v>
+        <v>0.007303624558747412</v>
       </c>
       <c r="C34">
-        <v>0.0592777127651491</v>
+        <v>-0.06212032952294172</v>
       </c>
       <c r="D34">
-        <v>-0.04942719403725664</v>
+        <v>0.02551900612317564</v>
       </c>
       <c r="E34">
-        <v>0.04505856659098561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02815509882471426</v>
+      </c>
+      <c r="F34">
+        <v>-0.0427041151145213</v>
+      </c>
+      <c r="G34">
+        <v>0.0339089134041567</v>
+      </c>
+      <c r="H34">
+        <v>-0.03394632175184871</v>
+      </c>
+      <c r="I34">
+        <v>-0.007084212518722926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002938136046571748</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01215186239993603</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03300451632083594</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.006640374229798917</v>
+      </c>
+      <c r="F35">
+        <v>0.01443335002602364</v>
+      </c>
+      <c r="G35">
+        <v>0.03669432341042167</v>
+      </c>
+      <c r="H35">
+        <v>-0.05834756939453713</v>
+      </c>
+      <c r="I35">
+        <v>-0.00824114145835201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.005983918458470227</v>
+        <v>0.01101799810975895</v>
       </c>
       <c r="C36">
-        <v>0.007611549303773413</v>
+        <v>-0.0227997430791053</v>
       </c>
       <c r="D36">
-        <v>-0.07525724057250016</v>
+        <v>0.07244016679131854</v>
       </c>
       <c r="E36">
-        <v>-0.04675009373611765</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03112842866643808</v>
+      </c>
+      <c r="F36">
+        <v>0.04581627775938935</v>
+      </c>
+      <c r="G36">
+        <v>0.02742115643948899</v>
+      </c>
+      <c r="H36">
+        <v>-0.06559004695171723</v>
+      </c>
+      <c r="I36">
+        <v>-0.007074190921921251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005912147048105792</v>
+        <v>0.01027494042594868</v>
       </c>
       <c r="C38">
-        <v>0.007885400737499992</v>
+        <v>-0.02607864448991351</v>
       </c>
       <c r="D38">
-        <v>-0.07803609925734015</v>
+        <v>0.08409495077408098</v>
       </c>
       <c r="E38">
-        <v>-0.002467366770185977</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.007547320228163035</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009482395456152508</v>
+      </c>
+      <c r="G38">
+        <v>0.0008461248496135571</v>
+      </c>
+      <c r="H38">
+        <v>-0.07492459510128169</v>
+      </c>
+      <c r="I38">
+        <v>-0.03875794639068963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01644552392842727</v>
+        <v>0.003621481955057507</v>
       </c>
       <c r="C39">
-        <v>0.05991887097909265</v>
+        <v>-0.07942915816538648</v>
       </c>
       <c r="D39">
-        <v>-0.1010584806449379</v>
+        <v>0.08601350314739381</v>
       </c>
       <c r="E39">
-        <v>0.007989224143507391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05275913315027246</v>
+      </c>
+      <c r="F39">
+        <v>-0.01396124787020058</v>
+      </c>
+      <c r="G39">
+        <v>0.06495502105473155</v>
+      </c>
+      <c r="H39">
+        <v>-0.08364667830102319</v>
+      </c>
+      <c r="I39">
+        <v>-0.02779609713465511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01827089451633757</v>
+        <v>0.0122765448776766</v>
       </c>
       <c r="C40">
-        <v>0.0219698577145067</v>
+        <v>-0.04001530301714962</v>
       </c>
       <c r="D40">
-        <v>-0.1084890119039099</v>
+        <v>0.09061758836760225</v>
       </c>
       <c r="E40">
-        <v>0.01370759285317894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0442979713130289</v>
+      </c>
+      <c r="F40">
+        <v>-0.02760010944924839</v>
+      </c>
+      <c r="G40">
+        <v>-0.01308167771476243</v>
+      </c>
+      <c r="H40">
+        <v>-0.1105878257673316</v>
+      </c>
+      <c r="I40">
+        <v>0.03593482105024935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009697014968632189</v>
+        <v>0.01467017599467227</v>
       </c>
       <c r="C41">
-        <v>0.004248907521420647</v>
+        <v>-0.02004725194915254</v>
       </c>
       <c r="D41">
-        <v>-0.03414222030455175</v>
+        <v>0.0413575636810365</v>
       </c>
       <c r="E41">
-        <v>-0.02250284359483534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.006010330381273386</v>
+      </c>
+      <c r="F41">
+        <v>0.02194545787664721</v>
+      </c>
+      <c r="G41">
+        <v>0.01474277440613864</v>
+      </c>
+      <c r="H41">
+        <v>-0.04515454652521556</v>
+      </c>
+      <c r="I41">
+        <v>-0.01007820306156351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0007116939624991558</v>
+        <v>0.007199849509885468</v>
       </c>
       <c r="C43">
-        <v>0.003984694917724148</v>
+        <v>-0.01600604877163444</v>
       </c>
       <c r="D43">
-        <v>-0.0509842469495239</v>
+        <v>0.05069236471716429</v>
       </c>
       <c r="E43">
-        <v>-0.01795511911755017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01099211348822232</v>
+      </c>
+      <c r="F43">
+        <v>0.0199781175585612</v>
+      </c>
+      <c r="G43">
+        <v>0.02054195727200505</v>
+      </c>
+      <c r="H43">
+        <v>-0.05653092644467465</v>
+      </c>
+      <c r="I43">
+        <v>-0.02831028744530524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02075235353843825</v>
+        <v>0.01196407634067813</v>
       </c>
       <c r="C44">
-        <v>0.02333021780366565</v>
+        <v>-0.04842281805785114</v>
       </c>
       <c r="D44">
-        <v>-0.08742471819440879</v>
+        <v>0.1002859999119834</v>
       </c>
       <c r="E44">
-        <v>-0.04587660745400671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03667291119929392</v>
+      </c>
+      <c r="F44">
+        <v>0.03118108854815512</v>
+      </c>
+      <c r="G44">
+        <v>-0.0001680278018740035</v>
+      </c>
+      <c r="H44">
+        <v>-0.07641948121047415</v>
+      </c>
+      <c r="I44">
+        <v>-0.02021768764937338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006229858049779201</v>
+        <v>-0.002009053670342303</v>
       </c>
       <c r="C46">
-        <v>0.03089789386050542</v>
+        <v>-0.04270881460621855</v>
       </c>
       <c r="D46">
-        <v>-0.07590174374483778</v>
+        <v>0.06878938866312334</v>
       </c>
       <c r="E46">
-        <v>-0.01751870077164796</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04622541778998437</v>
+      </c>
+      <c r="F46">
+        <v>0.02451821163313227</v>
+      </c>
+      <c r="G46">
+        <v>0.04868579350103053</v>
+      </c>
+      <c r="H46">
+        <v>-0.126656386267808</v>
+      </c>
+      <c r="I46">
+        <v>-0.02470160508421824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.077728818634522</v>
+        <v>0.03030588028340449</v>
       </c>
       <c r="C47">
-        <v>0.1071371029007869</v>
+        <v>-0.1285920374395282</v>
       </c>
       <c r="D47">
-        <v>-0.04837300175371114</v>
+        <v>0.02170465089462678</v>
       </c>
       <c r="E47">
-        <v>-0.01202190704748431</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008808705121152498</v>
+      </c>
+      <c r="F47">
+        <v>-0.005630985748322481</v>
+      </c>
+      <c r="G47">
+        <v>0.05570681424536409</v>
+      </c>
+      <c r="H47">
+        <v>-0.02415136579416659</v>
+      </c>
+      <c r="I47">
+        <v>-0.02080813913104765</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00940336178281282</v>
+        <v>0.01462770384729172</v>
       </c>
       <c r="C48">
-        <v>0.01758195714771637</v>
+        <v>-0.03427877138826216</v>
       </c>
       <c r="D48">
-        <v>-0.06969760087054226</v>
+        <v>0.07522895250475103</v>
       </c>
       <c r="E48">
-        <v>-0.04660012366617557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02192590799832512</v>
+      </c>
+      <c r="F48">
+        <v>0.05137498241529105</v>
+      </c>
+      <c r="G48">
+        <v>0.04256765781296454</v>
+      </c>
+      <c r="H48">
+        <v>-0.1068125155164554</v>
+      </c>
+      <c r="I48">
+        <v>-0.02259679452518152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03297541131966248</v>
+        <v>0.01147647497027975</v>
       </c>
       <c r="C50">
-        <v>0.05802677724569326</v>
+        <v>-0.07636120251517201</v>
       </c>
       <c r="D50">
-        <v>-0.05481565727965911</v>
+        <v>0.04727421473817256</v>
       </c>
       <c r="E50">
-        <v>-0.004385559616566619</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01501729560557747</v>
+      </c>
+      <c r="F50">
+        <v>0.006529102466378806</v>
+      </c>
+      <c r="G50">
+        <v>0.004151723901910438</v>
+      </c>
+      <c r="H50">
+        <v>-0.02893362751904652</v>
+      </c>
+      <c r="I50">
+        <v>-0.02167038718064212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001567546873934551</v>
+        <v>-0.001757273976549632</v>
       </c>
       <c r="C51">
-        <v>0.005535888634915421</v>
+        <v>-0.01600249386297885</v>
       </c>
       <c r="D51">
-        <v>-0.0551744525689752</v>
+        <v>0.05474460342600809</v>
       </c>
       <c r="E51">
-        <v>-0.0183143480562972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03931173923379681</v>
+      </c>
+      <c r="F51">
+        <v>0.03469491756991026</v>
+      </c>
+      <c r="G51">
+        <v>0.005901316711697406</v>
+      </c>
+      <c r="H51">
+        <v>-0.07085581003602119</v>
+      </c>
+      <c r="I51">
+        <v>0.01066777924232865</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1085538075283971</v>
+        <v>0.05159175583361084</v>
       </c>
       <c r="C53">
-        <v>0.1252444854548466</v>
+        <v>-0.1581237985908124</v>
       </c>
       <c r="D53">
-        <v>0.001874230396406461</v>
+        <v>-0.02347204304151108</v>
       </c>
       <c r="E53">
-        <v>-0.0430366284422273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02350927063217906</v>
+      </c>
+      <c r="F53">
+        <v>0.0458468955641332</v>
+      </c>
+      <c r="G53">
+        <v>0.007233621643751264</v>
+      </c>
+      <c r="H53">
+        <v>-0.007955379400608229</v>
+      </c>
+      <c r="I53">
+        <v>-0.01729052888719891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.009549530846088599</v>
+        <v>0.009753387270641791</v>
       </c>
       <c r="C54">
-        <v>0.02256297144953528</v>
+        <v>-0.03877668433965276</v>
       </c>
       <c r="D54">
-        <v>-0.08493853077275655</v>
+        <v>0.07715955762807318</v>
       </c>
       <c r="E54">
-        <v>-0.004245284195915463</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02145251890330655</v>
+      </c>
+      <c r="F54">
+        <v>0.0002601260176852593</v>
+      </c>
+      <c r="G54">
+        <v>0.02002567497698889</v>
+      </c>
+      <c r="H54">
+        <v>-0.08180525754819816</v>
+      </c>
+      <c r="I54">
+        <v>-0.03577064308348862</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09392390996886867</v>
+        <v>0.03969486365514283</v>
       </c>
       <c r="C55">
-        <v>0.1069912997491227</v>
+        <v>-0.1317683115729592</v>
       </c>
       <c r="D55">
-        <v>-0.006089574634295943</v>
+        <v>-0.03292353572625863</v>
       </c>
       <c r="E55">
-        <v>-0.002514943338996998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.008848907586381911</v>
+      </c>
+      <c r="F55">
+        <v>0.007167912356815877</v>
+      </c>
+      <c r="G55">
+        <v>0.003031053902929204</v>
+      </c>
+      <c r="H55">
+        <v>-0.004240888997335173</v>
+      </c>
+      <c r="I55">
+        <v>0.009971473544857789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1344962281563579</v>
+        <v>0.05444195979133691</v>
       </c>
       <c r="C56">
-        <v>0.1451068827261691</v>
+        <v>-0.191757933060495</v>
       </c>
       <c r="D56">
-        <v>-0.006999417041900729</v>
+        <v>-0.03272157272504769</v>
       </c>
       <c r="E56">
-        <v>0.005633403199307238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02663930953933324</v>
+      </c>
+      <c r="F56">
+        <v>0.01196874039230473</v>
+      </c>
+      <c r="G56">
+        <v>-0.03621293967796668</v>
+      </c>
+      <c r="H56">
+        <v>-0.03582292584404245</v>
+      </c>
+      <c r="I56">
+        <v>0.006727645591726433</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01071724937332842</v>
+        <v>0.001944523845492813</v>
       </c>
       <c r="C58">
-        <v>0.01261154030727371</v>
+        <v>-0.05847147007215109</v>
       </c>
       <c r="D58">
-        <v>-0.2167079073509452</v>
+        <v>0.2888617847571853</v>
       </c>
       <c r="E58">
-        <v>-0.1047372994968765</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02423190324523396</v>
+      </c>
+      <c r="F58">
+        <v>0.1192598979441596</v>
+      </c>
+      <c r="G58">
+        <v>-0.1648799142001999</v>
+      </c>
+      <c r="H58">
+        <v>-0.00426475298140607</v>
+      </c>
+      <c r="I58">
+        <v>-0.04230330771290851</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1815602754728847</v>
+        <v>0.2540434338753971</v>
       </c>
       <c r="C59">
-        <v>-0.1444849201300358</v>
+        <v>0.05719030814886236</v>
       </c>
       <c r="D59">
-        <v>-0.04117147460672489</v>
+        <v>0.05299903443618725</v>
       </c>
       <c r="E59">
-        <v>-0.0273037432403653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02462808152970952</v>
+      </c>
+      <c r="F59">
+        <v>0.02474788438710621</v>
+      </c>
+      <c r="G59">
+        <v>-0.01210829746158784</v>
+      </c>
+      <c r="H59">
+        <v>-0.0125316248653117</v>
+      </c>
+      <c r="I59">
+        <v>0.03583880738768239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1818954364840633</v>
+        <v>0.1481055513948382</v>
       </c>
       <c r="C60">
-        <v>0.09831131218398806</v>
+        <v>-0.1716808236092009</v>
       </c>
       <c r="D60">
-        <v>-0.2285103174889561</v>
+        <v>0.1005768085425577</v>
       </c>
       <c r="E60">
-        <v>0.05894454072817697</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1449756311747633</v>
+      </c>
+      <c r="F60">
+        <v>-0.1913642718508471</v>
+      </c>
+      <c r="G60">
+        <v>0.1201957940364343</v>
+      </c>
+      <c r="H60">
+        <v>0.3216336650490295</v>
+      </c>
+      <c r="I60">
+        <v>0.1187640927618753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02493224915162003</v>
+        <v>0.01036418483572975</v>
       </c>
       <c r="C61">
-        <v>0.05419611592667403</v>
+        <v>-0.07551195899111365</v>
       </c>
       <c r="D61">
-        <v>-0.08326476823664669</v>
+        <v>0.07017769856126987</v>
       </c>
       <c r="E61">
-        <v>0.007421820757371809</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03875614086340135</v>
+      </c>
+      <c r="F61">
+        <v>-0.01888980331092973</v>
+      </c>
+      <c r="G61">
+        <v>0.06732730786062839</v>
+      </c>
+      <c r="H61">
+        <v>-0.061918007869137</v>
+      </c>
+      <c r="I61">
+        <v>-0.01681400849535259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.006976914327084531</v>
+        <v>0.008080222636132048</v>
       </c>
       <c r="C63">
-        <v>0.02433295090858217</v>
+        <v>-0.03783154554889397</v>
       </c>
       <c r="D63">
-        <v>-0.09067041973287288</v>
+        <v>0.06660372747757826</v>
       </c>
       <c r="E63">
-        <v>-0.02598720774820358</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05886422356348091</v>
+      </c>
+      <c r="F63">
+        <v>0.0223373387678602</v>
+      </c>
+      <c r="G63">
+        <v>0.03589620430595196</v>
+      </c>
+      <c r="H63">
+        <v>-0.06825778265853859</v>
+      </c>
+      <c r="I63">
+        <v>-0.02060968940494969</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05692748514349738</v>
+        <v>0.01499917643038264</v>
       </c>
       <c r="C64">
-        <v>0.08645824873703865</v>
+        <v>-0.1036941982607724</v>
       </c>
       <c r="D64">
-        <v>-0.009947727796819128</v>
+        <v>0.008218009313351213</v>
       </c>
       <c r="E64">
-        <v>-0.01653329520277708</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02134221463645106</v>
+      </c>
+      <c r="F64">
+        <v>0.01338511114110493</v>
+      </c>
+      <c r="G64">
+        <v>0.04429432618596026</v>
+      </c>
+      <c r="H64">
+        <v>-0.03752576773967965</v>
+      </c>
+      <c r="I64">
+        <v>-0.04174411655924642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02449397354916038</v>
+        <v>0.02022001955440619</v>
       </c>
       <c r="C65">
-        <v>0.01533800346941575</v>
+        <v>-0.04415738166010835</v>
       </c>
       <c r="D65">
-        <v>-0.1076008148010498</v>
+        <v>0.1142039682140172</v>
       </c>
       <c r="E65">
-        <v>-0.02001130295171086</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04822353531134756</v>
+      </c>
+      <c r="F65">
+        <v>-0.005553276145562423</v>
+      </c>
+      <c r="G65">
+        <v>0.03608319214444811</v>
+      </c>
+      <c r="H65">
+        <v>0.006979093399515962</v>
+      </c>
+      <c r="I65">
+        <v>-0.0364633749947676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02203580031401386</v>
+        <v>0.000483000275219384</v>
       </c>
       <c r="C66">
-        <v>0.06949176330718512</v>
+        <v>-0.09862634943715674</v>
       </c>
       <c r="D66">
-        <v>-0.1199155423451111</v>
+        <v>0.1152607332332485</v>
       </c>
       <c r="E66">
-        <v>0.007667085017432721</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04472962541527236</v>
+      </c>
+      <c r="F66">
+        <v>-0.01430799741360519</v>
+      </c>
+      <c r="G66">
+        <v>0.0316834713430822</v>
+      </c>
+      <c r="H66">
+        <v>-0.07007557582491597</v>
+      </c>
+      <c r="I66">
+        <v>-0.02594483173259582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02364524630960585</v>
+        <v>0.02004880774085648</v>
       </c>
       <c r="C67">
-        <v>0.02091037231258314</v>
+        <v>-0.03694736541094819</v>
       </c>
       <c r="D67">
-        <v>-0.03991663921334543</v>
+        <v>0.04003011541934528</v>
       </c>
       <c r="E67">
-        <v>0.02584131500878624</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.013234976490055</v>
+      </c>
+      <c r="F67">
+        <v>-0.03104678519342678</v>
+      </c>
+      <c r="G67">
+        <v>0.01581570051821013</v>
+      </c>
+      <c r="H67">
+        <v>-0.06102231730356288</v>
+      </c>
+      <c r="I67">
+        <v>-0.03149478317017464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2039941575366861</v>
+        <v>0.2775384756976644</v>
       </c>
       <c r="C68">
-        <v>-0.15475083461548</v>
+        <v>0.06271485488579756</v>
       </c>
       <c r="D68">
-        <v>-0.03203381523599708</v>
+        <v>0.02893951404858459</v>
       </c>
       <c r="E68">
-        <v>-0.02118046525860742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001887319992374251</v>
+      </c>
+      <c r="F68">
+        <v>0.02649875807018758</v>
+      </c>
+      <c r="G68">
+        <v>-0.0805981439087109</v>
+      </c>
+      <c r="H68">
+        <v>0.01548594700691325</v>
+      </c>
+      <c r="I68">
+        <v>0.006626091704710374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05369452595075117</v>
+        <v>0.01450352815387394</v>
       </c>
       <c r="C69">
-        <v>0.1173306915316602</v>
+        <v>-0.1182507020216547</v>
       </c>
       <c r="D69">
-        <v>-0.07313402226827555</v>
+        <v>0.02931506187768715</v>
       </c>
       <c r="E69">
-        <v>-0.007645477604970126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01135754659016081</v>
+      </c>
+      <c r="F69">
+        <v>-0.0119211670384799</v>
+      </c>
+      <c r="G69">
+        <v>0.03893880319281069</v>
+      </c>
+      <c r="H69">
+        <v>-0.02123319727457545</v>
+      </c>
+      <c r="I69">
+        <v>-0.00351310173698009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2123526208255405</v>
+        <v>0.2763703551250463</v>
       </c>
       <c r="C71">
-        <v>-0.1787628948199851</v>
+        <v>0.07750845693659714</v>
       </c>
       <c r="D71">
-        <v>-0.01853811080344052</v>
+        <v>0.01715160495969089</v>
       </c>
       <c r="E71">
-        <v>-0.0107375472815981</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0002628045174754458</v>
+      </c>
+      <c r="F71">
+        <v>0.01659500227161778</v>
+      </c>
+      <c r="G71">
+        <v>-0.03160160109850815</v>
+      </c>
+      <c r="H71">
+        <v>-0.01458646098463589</v>
+      </c>
+      <c r="I71">
+        <v>-0.007398774507748666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1031600837466551</v>
+        <v>0.05556341466082799</v>
       </c>
       <c r="C72">
-        <v>0.07436110885709668</v>
+        <v>-0.1273482507036819</v>
       </c>
       <c r="D72">
-        <v>-0.1219041644358081</v>
+        <v>0.06334038785529626</v>
       </c>
       <c r="E72">
-        <v>0.007224271077977572</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07048549377273633</v>
+      </c>
+      <c r="F72">
+        <v>-0.02847191079250296</v>
+      </c>
+      <c r="G72">
+        <v>0.06194803248160938</v>
+      </c>
+      <c r="H72">
+        <v>-0.02389801081053998</v>
+      </c>
+      <c r="I72">
+        <v>-0.02449451968719255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1723231507447286</v>
+        <v>0.1383444776053283</v>
       </c>
       <c r="C73">
-        <v>0.06646481554562898</v>
+        <v>-0.1505019536554147</v>
       </c>
       <c r="D73">
-        <v>-0.2763576692983385</v>
+        <v>0.1057754850925665</v>
       </c>
       <c r="E73">
-        <v>0.108169357099154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2611404612816646</v>
+      </c>
+      <c r="F73">
+        <v>-0.278227921719552</v>
+      </c>
+      <c r="G73">
+        <v>0.2919239577680522</v>
+      </c>
+      <c r="H73">
+        <v>0.3549409098621479</v>
+      </c>
+      <c r="I73">
+        <v>0.04432253977509056</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1065397924587693</v>
+        <v>0.04934682794436825</v>
       </c>
       <c r="C74">
-        <v>0.1148562256948286</v>
+        <v>-0.1445193029087175</v>
       </c>
       <c r="D74">
-        <v>0.02490761806216813</v>
+        <v>-0.04433150781460999</v>
       </c>
       <c r="E74">
-        <v>-0.03457373193949491</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.008828240873551694</v>
+      </c>
+      <c r="F74">
+        <v>0.03527953457483744</v>
+      </c>
+      <c r="G74">
+        <v>-0.003028455715229772</v>
+      </c>
+      <c r="H74">
+        <v>0.02102318801217551</v>
+      </c>
+      <c r="I74">
+        <v>0.006542881361887117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2308045982956747</v>
+        <v>0.09826717765554079</v>
       </c>
       <c r="C75">
-        <v>0.1994852573418747</v>
+        <v>-0.2698894669152399</v>
       </c>
       <c r="D75">
-        <v>0.0959729093058309</v>
+        <v>-0.1326529873789367</v>
       </c>
       <c r="E75">
-        <v>0.06679537984849201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08879503297217044</v>
+      </c>
+      <c r="F75">
+        <v>-0.03771237651666641</v>
+      </c>
+      <c r="G75">
+        <v>-0.08491298973673972</v>
+      </c>
+      <c r="H75">
+        <v>-0.0621296941078777</v>
+      </c>
+      <c r="I75">
+        <v>-0.05495539763715437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1372543907770106</v>
+        <v>0.05633119982720475</v>
       </c>
       <c r="C76">
-        <v>0.1381072405353435</v>
+        <v>-0.1811546370343157</v>
       </c>
       <c r="D76">
-        <v>0.0006065529048378522</v>
+        <v>-0.04768196478719127</v>
       </c>
       <c r="E76">
-        <v>0.01165557506786914</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.01799892351892282</v>
+      </c>
+      <c r="F76">
+        <v>3.455441074450462e-05</v>
+      </c>
+      <c r="G76">
+        <v>-0.02333394162161901</v>
+      </c>
+      <c r="H76">
+        <v>-0.04769954641163583</v>
+      </c>
+      <c r="I76">
+        <v>-0.008720003908504727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01884689129314435</v>
+        <v>-0.001595672820647119</v>
       </c>
       <c r="C77">
-        <v>0.07058380927489466</v>
+        <v>-0.1079988855186399</v>
       </c>
       <c r="D77">
-        <v>0.02118224021300625</v>
+        <v>0.3158050148510113</v>
       </c>
       <c r="E77">
-        <v>-0.001653807333506083</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8577947501871155</v>
+      </c>
+      <c r="F77">
+        <v>-0.1785478711468629</v>
+      </c>
+      <c r="G77">
+        <v>0.1202857335565912</v>
+      </c>
+      <c r="H77">
+        <v>0.1974606954595587</v>
+      </c>
+      <c r="I77">
+        <v>-0.01909623112142704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02955014074291556</v>
+        <v>0.01632693111193257</v>
       </c>
       <c r="C78">
-        <v>0.07115855708964137</v>
+        <v>-0.09211888322623484</v>
       </c>
       <c r="D78">
-        <v>-0.1491653203660506</v>
+        <v>0.1143110975586746</v>
       </c>
       <c r="E78">
-        <v>-0.05406747234590031</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06343361223330674</v>
+      </c>
+      <c r="F78">
+        <v>0.04377115442524881</v>
+      </c>
+      <c r="G78">
+        <v>-0.02093590870387678</v>
+      </c>
+      <c r="H78">
+        <v>-0.05463430240239183</v>
+      </c>
+      <c r="I78">
+        <v>0.04433913624473176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1012371859785457</v>
+        <v>0.03567675476643088</v>
       </c>
       <c r="C79">
-        <v>0.1863622660902413</v>
+        <v>-0.2001404208235455</v>
       </c>
       <c r="D79">
-        <v>0.2228961808775788</v>
+        <v>-0.09088847744155666</v>
       </c>
       <c r="E79">
-        <v>-0.8797895201449135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05627978923135608</v>
+      </c>
+      <c r="F79">
+        <v>0.8174531579207643</v>
+      </c>
+      <c r="G79">
+        <v>0.205295068497435</v>
+      </c>
+      <c r="H79">
+        <v>0.3653981030866298</v>
+      </c>
+      <c r="I79">
+        <v>-0.01532960874450701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.003225314549240547</v>
+        <v>0.003925789642202011</v>
       </c>
       <c r="C80">
-        <v>0.04466057832058862</v>
+        <v>-0.04367266766373489</v>
       </c>
       <c r="D80">
-        <v>-0.05057446607744883</v>
+        <v>0.03919693568936199</v>
       </c>
       <c r="E80">
-        <v>-0.0001622604062070894</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04668667930359183</v>
+      </c>
+      <c r="F80">
+        <v>-0.002920820624566353</v>
+      </c>
+      <c r="G80">
+        <v>0.01627230674325699</v>
+      </c>
+      <c r="H80">
+        <v>-0.02413801938272448</v>
+      </c>
+      <c r="I80">
+        <v>0.08951472159498436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1180345630229796</v>
+        <v>0.03935793693402113</v>
       </c>
       <c r="C81">
-        <v>0.1360292147091053</v>
+        <v>-0.1663589077706823</v>
       </c>
       <c r="D81">
-        <v>0.0835593510692615</v>
+        <v>-0.08504987545089501</v>
       </c>
       <c r="E81">
-        <v>-0.01954202219390004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04359528784489744</v>
+      </c>
+      <c r="F81">
+        <v>0.05534390891389576</v>
+      </c>
+      <c r="G81">
+        <v>-0.03173822403789225</v>
+      </c>
+      <c r="H81">
+        <v>-0.08374552888832953</v>
+      </c>
+      <c r="I81">
+        <v>0.009167594820208933</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2481203841922208</v>
+        <v>0.08493908669968549</v>
       </c>
       <c r="C82">
-        <v>0.2944086531565401</v>
+        <v>-0.3164890884049532</v>
       </c>
       <c r="D82">
-        <v>0.1890554401849257</v>
+        <v>-0.2434091228126326</v>
       </c>
       <c r="E82">
-        <v>0.1985603176506096</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05815044104599561</v>
+      </c>
+      <c r="F82">
+        <v>-0.1258548880307911</v>
+      </c>
+      <c r="G82">
+        <v>-0.05153610117997616</v>
+      </c>
+      <c r="H82">
+        <v>-0.1324514518980443</v>
+      </c>
+      <c r="I82">
+        <v>0.0138317306762647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01029398809857359</v>
+        <v>-0.01519133838983198</v>
       </c>
       <c r="C83">
-        <v>0.052594128901419</v>
+        <v>-0.01869240743114179</v>
       </c>
       <c r="D83">
-        <v>-0.003547320557699942</v>
+        <v>0.01519465017442089</v>
       </c>
       <c r="E83">
-        <v>-0.02908343416575506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08536327260748629</v>
+      </c>
+      <c r="F83">
+        <v>0.06562963474051157</v>
+      </c>
+      <c r="G83">
+        <v>-0.001415841312197292</v>
+      </c>
+      <c r="H83">
+        <v>-0.120170851032217</v>
+      </c>
+      <c r="I83">
+        <v>0.9278985076257213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0004882313808308442</v>
+        <v>-0.004309343709032303</v>
       </c>
       <c r="C84">
-        <v>-0.001546068943168222</v>
+        <v>-0.01698678961065735</v>
       </c>
       <c r="D84">
-        <v>-0.00110713949913428</v>
+        <v>0.04228394553236884</v>
       </c>
       <c r="E84">
-        <v>0.002524577002688112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.0001857128420969071</v>
+      </c>
+      <c r="F84">
+        <v>0.02660872961108761</v>
+      </c>
+      <c r="G84">
+        <v>-0.03247010659505251</v>
+      </c>
+      <c r="H84">
+        <v>-0.06267709976932158</v>
+      </c>
+      <c r="I84">
+        <v>-0.05311567115393111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1417811876572062</v>
+        <v>0.05511703319268783</v>
       </c>
       <c r="C85">
-        <v>0.1417308512086395</v>
+        <v>-0.1845221267618299</v>
       </c>
       <c r="D85">
-        <v>0.05715548715654779</v>
+        <v>-0.1001001601750112</v>
       </c>
       <c r="E85">
-        <v>-0.03604594935425394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001344904349680873</v>
+      </c>
+      <c r="F85">
+        <v>0.06502900306200306</v>
+      </c>
+      <c r="G85">
+        <v>-0.02343454454583686</v>
+      </c>
+      <c r="H85">
+        <v>0.001586437795777685</v>
+      </c>
+      <c r="I85">
+        <v>-0.006029693383999645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0174976703338746</v>
+        <v>0.01473985706859936</v>
       </c>
       <c r="C86">
-        <v>0.01033789776679893</v>
+        <v>-0.04053422896060988</v>
       </c>
       <c r="D86">
-        <v>-0.09620697998067684</v>
+        <v>0.116103858842826</v>
       </c>
       <c r="E86">
-        <v>-0.02161806380342426</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02398698455071121</v>
+      </c>
+      <c r="F86">
+        <v>0.01633129554785499</v>
+      </c>
+      <c r="G86">
+        <v>0.01952581939351604</v>
+      </c>
+      <c r="H86">
+        <v>0.002740181039617045</v>
+      </c>
+      <c r="I86">
+        <v>-0.0220894045129046</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02148992335703393</v>
+        <v>0.01065850740379337</v>
       </c>
       <c r="C87">
-        <v>0.02855043424776278</v>
+        <v>-0.06292549398260522</v>
       </c>
       <c r="D87">
-        <v>-0.1255755660734673</v>
+        <v>0.1360831144668204</v>
       </c>
       <c r="E87">
-        <v>-0.04557257779814319</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01329180531120865</v>
+      </c>
+      <c r="F87">
+        <v>0.0356947292252676</v>
+      </c>
+      <c r="G87">
+        <v>-0.02267268775016658</v>
+      </c>
+      <c r="H87">
+        <v>-0.08399865266084265</v>
+      </c>
+      <c r="I87">
+        <v>0.02005622890921215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05167809435801666</v>
+        <v>0.03150320244718359</v>
       </c>
       <c r="C88">
-        <v>0.04292786483344686</v>
+        <v>-0.06800275370562335</v>
       </c>
       <c r="D88">
-        <v>-0.01721756748449086</v>
+        <v>0.01513032831722624</v>
       </c>
       <c r="E88">
-        <v>-0.02888806007937653</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02849722047036353</v>
+      </c>
+      <c r="F88">
+        <v>0.0191612225077274</v>
+      </c>
+      <c r="G88">
+        <v>0.01854840637334706</v>
+      </c>
+      <c r="H88">
+        <v>-0.002524762924740334</v>
+      </c>
+      <c r="I88">
+        <v>-0.02835001922557269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3208312104440988</v>
+        <v>0.4092149149290301</v>
       </c>
       <c r="C89">
-        <v>-0.3229859422363491</v>
+        <v>0.1487537762424965</v>
       </c>
       <c r="D89">
-        <v>-0.01126125974663733</v>
+        <v>0.03514438721690107</v>
       </c>
       <c r="E89">
-        <v>-0.07965850832719867</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0467504141827428</v>
+      </c>
+      <c r="F89">
+        <v>0.05045234692791817</v>
+      </c>
+      <c r="G89">
+        <v>0.03592675264448622</v>
+      </c>
+      <c r="H89">
+        <v>-0.1398206769763776</v>
+      </c>
+      <c r="I89">
+        <v>0.09073025446831733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2573077952758516</v>
+        <v>0.3219740071481723</v>
       </c>
       <c r="C90">
-        <v>-0.2395066088636551</v>
+        <v>0.100542927783873</v>
       </c>
       <c r="D90">
-        <v>-0.05328058754757922</v>
+        <v>0.03637876238379994</v>
       </c>
       <c r="E90">
-        <v>0.01045328561715697</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.009498332717024379</v>
+      </c>
+      <c r="F90">
+        <v>-0.008397073735779213</v>
+      </c>
+      <c r="G90">
+        <v>-0.06021180605784142</v>
+      </c>
+      <c r="H90">
+        <v>-0.02979824242246314</v>
+      </c>
+      <c r="I90">
+        <v>0.02649135921461033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1539974584027619</v>
+        <v>0.06396149128955103</v>
       </c>
       <c r="C91">
-        <v>0.1864468191140533</v>
+        <v>-0.2067412952660264</v>
       </c>
       <c r="D91">
-        <v>0.1020667957371955</v>
+        <v>-0.1118392439470624</v>
       </c>
       <c r="E91">
-        <v>-0.05705811182490323</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05653603661536404</v>
+      </c>
+      <c r="F91">
+        <v>0.06253336748306255</v>
+      </c>
+      <c r="G91">
+        <v>-0.01152269554837225</v>
+      </c>
+      <c r="H91">
+        <v>0.006856906705741033</v>
+      </c>
+      <c r="I91">
+        <v>0.02501748824948917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2418500906627143</v>
+        <v>0.3408780580999876</v>
       </c>
       <c r="C92">
-        <v>-0.2627663342934375</v>
+        <v>0.1364352071568579</v>
       </c>
       <c r="D92">
-        <v>0.06377097173371357</v>
+        <v>0.006388844447246311</v>
       </c>
       <c r="E92">
-        <v>-0.01621831576046254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06680953575228397</v>
+      </c>
+      <c r="F92">
+        <v>0.03482181912189369</v>
+      </c>
+      <c r="G92">
+        <v>-0.02162022072399091</v>
+      </c>
+      <c r="H92">
+        <v>-0.03870961702603373</v>
+      </c>
+      <c r="I92">
+        <v>-0.1391955471286269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2834854772247423</v>
+        <v>0.3367678104606791</v>
       </c>
       <c r="C93">
-        <v>-0.248179331289313</v>
+        <v>0.1069771306906905</v>
       </c>
       <c r="D93">
-        <v>-0.006206406058822749</v>
+        <v>-0.01780838230386276</v>
       </c>
       <c r="E93">
-        <v>-0.01517290495765209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02300237996221997</v>
+      </c>
+      <c r="F93">
+        <v>0.010191358963575</v>
+      </c>
+      <c r="G93">
+        <v>0.005082865606944507</v>
+      </c>
+      <c r="H93">
+        <v>0.03000447711136273</v>
+      </c>
+      <c r="I93">
+        <v>-0.03492946782872298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2914503355602299</v>
+        <v>0.1213460170363381</v>
       </c>
       <c r="C94">
-        <v>0.2705295088356415</v>
+        <v>-0.3477669196894653</v>
       </c>
       <c r="D94">
-        <v>0.2874178325902785</v>
+        <v>-0.3612721292204216</v>
       </c>
       <c r="E94">
-        <v>0.2466893900641193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05154644821372872</v>
+      </c>
+      <c r="F94">
+        <v>-0.1294369888531565</v>
+      </c>
+      <c r="G94">
+        <v>-0.3010219088636669</v>
+      </c>
+      <c r="H94">
+        <v>-0.0999458952755401</v>
+      </c>
+      <c r="I94">
+        <v>-0.02327519046324213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.0123420628386674</v>
+        <v>0.01263042297875396</v>
       </c>
       <c r="C95">
-        <v>0.04328722586111107</v>
+        <v>-0.0667199901510574</v>
       </c>
       <c r="D95">
-        <v>0.02865498330477284</v>
+        <v>0.08615829752123069</v>
       </c>
       <c r="E95">
-        <v>0.02105189994867715</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1542322095894219</v>
+      </c>
+      <c r="F95">
+        <v>-0.0433097832608267</v>
+      </c>
+      <c r="G95">
+        <v>0.2122637562765729</v>
+      </c>
+      <c r="H95">
+        <v>-0.2653039134612301</v>
+      </c>
+      <c r="I95">
+        <v>-0.1317050232888812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00161657766755496</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009038229379548872</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0006834600967516228</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003655094278242853</v>
+      </c>
+      <c r="F97">
+        <v>0.000397762130691523</v>
+      </c>
+      <c r="G97">
+        <v>3.427921311545141e-05</v>
+      </c>
+      <c r="H97">
+        <v>-0.003634828155814005</v>
+      </c>
+      <c r="I97">
+        <v>-0.006139951460170324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1492006726646048</v>
+        <v>0.1204547644091525</v>
       </c>
       <c r="C98">
-        <v>0.08508570887075441</v>
+        <v>-0.1533607970813977</v>
       </c>
       <c r="D98">
-        <v>-0.1808259869944389</v>
+        <v>0.07414401704128699</v>
       </c>
       <c r="E98">
-        <v>0.09650980892916326</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1796407998809123</v>
+      </c>
+      <c r="F98">
+        <v>-0.2206021617146636</v>
+      </c>
+      <c r="G98">
+        <v>0.1991894792579293</v>
+      </c>
+      <c r="H98">
+        <v>0.2968050539394122</v>
+      </c>
+      <c r="I98">
+        <v>0.08394389497041546</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001201589442457373</v>
+        <v>0.0009763516359367101</v>
       </c>
       <c r="C101">
-        <v>0.02201894314830074</v>
+        <v>-0.03732786533045435</v>
       </c>
       <c r="D101">
-        <v>-0.08251900844197123</v>
+        <v>0.0948758008903276</v>
       </c>
       <c r="E101">
-        <v>-0.02651481055542161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.06348722968906456</v>
+      </c>
+      <c r="F101">
+        <v>0.02269042527877983</v>
+      </c>
+      <c r="G101">
+        <v>0.086875649508089</v>
+      </c>
+      <c r="H101">
+        <v>-0.1488910271149674</v>
+      </c>
+      <c r="I101">
+        <v>0.006162876182136201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1048587542750047</v>
+        <v>0.02666558022617483</v>
       </c>
       <c r="C102">
-        <v>0.1571673827818527</v>
+        <v>-0.1468235509061254</v>
       </c>
       <c r="D102">
-        <v>0.05480609467845591</v>
+        <v>-0.09905022690447436</v>
       </c>
       <c r="E102">
-        <v>0.08361790660020584</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03567671469812032</v>
+      </c>
+      <c r="F102">
+        <v>-0.07241775085787951</v>
+      </c>
+      <c r="G102">
+        <v>0.01800551409255664</v>
+      </c>
+      <c r="H102">
+        <v>-0.02412775069496629</v>
+      </c>
+      <c r="I102">
+        <v>0.02365379017987373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
